--- a/05-Study_two/Data Analysis/users/users.xlsx
+++ b/05-Study_two/Data Analysis/users/users.xlsx
@@ -5,17 +5,18 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dong/Dropbox/Notebook/Dissertation/Study 2/Data Analysis/users/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dong/Dropbox/Notebook/Dissertation/05-Study_two/Data Analysis/users/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="3660" windowWidth="19200" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="6220" yWindow="460" windowWidth="19200" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="users.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="users-in-analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="users-all" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">users.csv!$A$1:$G$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'users-in-analysis'!$A$1:$G$22</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -845,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G31"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1080,18 +1081,18 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>161</v>
-      </c>
-      <c r="F11">
+        <v>162</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
       <c r="G11">
@@ -1100,30 +1101,33 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>161</v>
-      </c>
-      <c r="F12">
+        <v>162</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>162</v>
@@ -1137,53 +1141,53 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="G14">
+      <c r="F14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="G15">
+      <c r="F15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>163</v>
@@ -1194,67 +1198,67 @@
       <c r="F16">
         <v>1</v>
       </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D19">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19">
@@ -1263,16 +1267,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1286,36 +1290,39 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1323,183 +1330,12 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>195</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>165</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>187</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24">
-        <v>165</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>176</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25">
-        <v>165</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>208</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>205</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>182</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>183</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29">
-        <v>171</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>198</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30">
-        <v>171</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>188</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31">
-        <v>171</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
+      <c r="G22">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G31">
+  <autoFilter ref="A1:G22">
     <sortState ref="A2:G33">
       <sortCondition ref="C1:C33"/>
     </sortState>
@@ -1507,4 +1343,660 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>158</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>209</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>158</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>158</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5">
+        <v>159</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6">
+        <v>159</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>191</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>159</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>189</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>160</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>126</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9">
+        <v>160</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>178</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <v>160</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>204</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>161</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>184</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <v>161</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>196</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>162</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>192</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>162</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>170</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>162</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>201</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>163</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>163</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>179</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>163</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>193</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>164</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>180</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20">
+        <v>164</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>185</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>164</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>190</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>164</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>195</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>165</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>187</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>165</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>176</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25">
+        <v>165</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>208</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>205</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>182</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>183</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29">
+        <v>171</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>198</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>171</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>188</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31">
+        <v>171</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/05-Study_two/Data Analysis/users/users.xlsx
+++ b/05-Study_two/Data Analysis/users/users.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="460" windowWidth="19200" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="12940" yWindow="460" windowWidth="19200" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="users-in-analysis" sheetId="1" r:id="rId1"/>
     <sheet name="users-all" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'users-in-analysis'!$A$1:$G$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'users-in-analysis'!$A$1:$G$19</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -846,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1081,58 +1081,61 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="G11">
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="G12">
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
@@ -1141,61 +1144,61 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D16">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16">
@@ -1204,138 +1207,75 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D17">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>183</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20">
-        <v>171</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>198</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21">
-        <v>171</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>188</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22">
-        <v>171</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G22">
+  <autoFilter ref="A1:G19">
     <sortState ref="A2:G33">
       <sortCondition ref="C1:C33"/>
     </sortState>
